--- a/FinalTest.xlsx
+++ b/FinalTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffrey Nieman\Documents\CUNY\Data 624\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA 624\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7253741B-C378-45FE-AE94-C02BE45F3208}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDFD9BB-1955-4950-87CC-25CC0906D15C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,67 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="37">
   <si>
-    <t>Brand Code</t>
-  </si>
-  <si>
-    <t>Carb Volume</t>
-  </si>
-  <si>
-    <t>Fill Ounces</t>
-  </si>
-  <si>
-    <t>PC Volume</t>
-  </si>
-  <si>
-    <t>Carb Pressure</t>
-  </si>
-  <si>
-    <t>Carb Temp</t>
-  </si>
-  <si>
     <t>PSC</t>
   </si>
   <si>
-    <t>PSC Fill</t>
-  </si>
-  <si>
-    <t>PSC CO2</t>
-  </si>
-  <si>
-    <t>Mnf Flow</t>
-  </si>
-  <si>
-    <t>Carb Pressure1</t>
-  </si>
-  <si>
-    <t>Fill Pressure</t>
-  </si>
-  <si>
-    <t>Hyd Pressure1</t>
-  </si>
-  <si>
-    <t>Hyd Pressure2</t>
-  </si>
-  <si>
-    <t>Hyd Pressure3</t>
-  </si>
-  <si>
-    <t>Hyd Pressure4</t>
-  </si>
-  <si>
-    <t>Filler Level</t>
-  </si>
-  <si>
-    <t>Filler Speed</t>
-  </si>
-  <si>
     <t>Temperature</t>
-  </si>
-  <si>
-    <t>Usage cont</t>
-  </si>
-  <si>
-    <t>Carb Flow</t>
   </si>
   <si>
     <t>Density</t>
@@ -94,31 +37,7 @@
     <t>Balling</t>
   </si>
   <si>
-    <t>Pressure Vacuum</t>
-  </si>
-  <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>Oxygen Filler</t>
-  </si>
-  <si>
-    <t>Bowl Setpoint</t>
-  </si>
-  <si>
-    <t>Pressure Setpoint</t>
-  </si>
-  <si>
-    <t>Air Pressurer</t>
-  </si>
-  <si>
-    <t>Alch Rel</t>
-  </si>
-  <si>
-    <t>Carb Rel</t>
-  </si>
-  <si>
-    <t>Balling Lvl</t>
   </si>
   <si>
     <t>D</t>
@@ -131,6 +50,87 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Brand.Code</t>
+  </si>
+  <si>
+    <t>Carb.Volume</t>
+  </si>
+  <si>
+    <t>Fill.Ounces</t>
+  </si>
+  <si>
+    <t>PC.Volume</t>
+  </si>
+  <si>
+    <t>Carb.Pressure</t>
+  </si>
+  <si>
+    <t>Carb.Temp</t>
+  </si>
+  <si>
+    <t>PSC.Fill</t>
+  </si>
+  <si>
+    <t>PSC.CO2</t>
+  </si>
+  <si>
+    <t>Mnf.Flow</t>
+  </si>
+  <si>
+    <t>Carb.Pressure1</t>
+  </si>
+  <si>
+    <t>Fill.Pressure</t>
+  </si>
+  <si>
+    <t>Hyd.Pressure1</t>
+  </si>
+  <si>
+    <t>Hyd.Pressure2</t>
+  </si>
+  <si>
+    <t>Hyd.Pressure3</t>
+  </si>
+  <si>
+    <t>Hyd.Pressure4</t>
+  </si>
+  <si>
+    <t>Filler.Level</t>
+  </si>
+  <si>
+    <t>Filler.Speed</t>
+  </si>
+  <si>
+    <t>Usage.cont</t>
+  </si>
+  <si>
+    <t>Carb.Flow</t>
+  </si>
+  <si>
+    <t>Pressure.Vacuum</t>
+  </si>
+  <si>
+    <t>Oxygen.Filler</t>
+  </si>
+  <si>
+    <t>Bowl.Setpoint</t>
+  </si>
+  <si>
+    <t>Pressure.Setpoint</t>
+  </si>
+  <si>
+    <t>Air.Pressurer</t>
+  </si>
+  <si>
+    <t>Alch.Rel</t>
+  </si>
+  <si>
+    <t>Carb.Rel</t>
+  </si>
+  <si>
+    <t>Balling.Lvl</t>
   </si>
 </sst>
 </file>
@@ -607,151 +607,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="14" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="7" customWidth="1"/>
     <col min="9" max="9" width="12" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.26953125" style="11" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" customWidth="1"/>
     <col min="14" max="14" width="17" style="13" customWidth="1"/>
     <col min="15" max="15" width="17" style="14" customWidth="1"/>
     <col min="16" max="16" width="17" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" style="18" customWidth="1"/>
     <col min="20" max="20" width="14" style="19" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" style="21" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="22" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" style="23" customWidth="1"/>
-    <col min="25" max="25" width="20.140625" style="24" customWidth="1"/>
-    <col min="26" max="26" width="7.140625" style="25" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" style="26" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="27" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" style="28" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="29" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="30" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="31" customWidth="1"/>
-    <col min="33" max="33" width="13.5703125" style="32" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="20" customWidth="1"/>
+    <col min="22" max="22" width="10.26953125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="8.26953125" style="22" customWidth="1"/>
+    <col min="24" max="24" width="10.1796875" style="23" customWidth="1"/>
+    <col min="25" max="25" width="20.1796875" style="24" customWidth="1"/>
+    <col min="26" max="26" width="7.1796875" style="25" customWidth="1"/>
+    <col min="27" max="27" width="16.26953125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="16.7265625" style="27" customWidth="1"/>
+    <col min="29" max="29" width="20.26953125" style="28" customWidth="1"/>
+    <col min="30" max="30" width="15.7265625" style="29" customWidth="1"/>
+    <col min="31" max="31" width="11.453125" style="30" customWidth="1"/>
+    <col min="32" max="32" width="11.453125" style="31" customWidth="1"/>
+    <col min="33" max="33" width="13.54296875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="T1" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>5.48</v>
@@ -841,9 +841,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>5.39333333333333</v>
@@ -939,9 +939,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>5.2933333333333303</v>
@@ -1037,9 +1037,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>5.2666666666666702</v>
@@ -1126,9 +1126,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>5.4066666666666698</v>
@@ -1224,9 +1224,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>5.2866666666666697</v>
@@ -1319,9 +1319,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>5.48</v>
@@ -1417,9 +1417,9 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>5.42</v>
@@ -1506,9 +1506,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>5.4066666666666698</v>
@@ -1604,9 +1604,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>5.4733333333333301</v>
@@ -1699,9 +1699,9 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>5.18</v>
@@ -1791,9 +1791,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>5.26</v>
@@ -1889,9 +1889,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>5.3</v>
@@ -1987,9 +1987,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>5.3066666666666702</v>
@@ -2085,9 +2085,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>5.2733333333333299</v>
@@ -2183,7 +2183,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>5.2533333333333303</v>
       </c>
@@ -2272,9 +2272,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>5.34</v>
@@ -2370,9 +2370,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>5.2666666666666702</v>
@@ -2468,9 +2468,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>5.5066666666666704</v>
@@ -2566,9 +2566,9 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>5.32</v>
@@ -2664,9 +2664,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <v>5.2733333333333299</v>
@@ -2762,9 +2762,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>5.5333333333333297</v>
@@ -2857,9 +2857,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
         <v>5.4266666666666703</v>
@@ -2949,9 +2949,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
         <v>5.4066666666666698</v>
@@ -3047,9 +3047,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
         <v>5.4533333333333296</v>
@@ -3145,9 +3145,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>5.2666666666666702</v>
@@ -3243,9 +3243,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>5.2533333333333303</v>
@@ -3341,9 +3341,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
         <v>5.5</v>
@@ -3439,9 +3439,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
         <v>5.48</v>
@@ -3534,9 +3534,9 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>5.4866666666666699</v>
@@ -3632,9 +3632,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
         <v>5.4666666666666703</v>
@@ -3730,9 +3730,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>5.46</v>
@@ -3825,9 +3825,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
         <v>5.32</v>
@@ -3920,9 +3920,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
         <v>5.3133333333333299</v>
@@ -4015,9 +4015,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
         <v>5.2666666666666702</v>
@@ -4110,9 +4110,9 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <v>5.4866666666666699</v>
@@ -4208,9 +4208,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>5.46</v>
@@ -4306,9 +4306,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <v>5.44</v>
@@ -4404,9 +4404,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <v>5.48</v>
@@ -4502,9 +4502,9 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
         <v>5.4733333333333301</v>
@@ -4597,9 +4597,9 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
         <v>5.5266666666666699</v>
@@ -4695,9 +4695,9 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
         <v>5.38</v>
@@ -4790,9 +4790,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <v>5.3133333333333299</v>
@@ -4888,9 +4888,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
         <v>5.3466666666666702</v>
@@ -4986,9 +4986,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B46" s="1">
         <v>5.3666666666666698</v>
@@ -5084,9 +5084,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <v>5.5466666666666704</v>
@@ -5182,9 +5182,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <v>5.5266666666666699</v>
@@ -5280,9 +5280,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
         <v>5.32</v>
@@ -5378,9 +5378,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1">
         <v>5.42</v>
@@ -5476,9 +5476,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
         <v>5.38</v>
@@ -5574,9 +5574,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <v>5.5466666666666704</v>
@@ -5666,9 +5666,9 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1">
         <v>5.3133333333333299</v>
@@ -5764,9 +5764,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
         <v>5.3866666666666703</v>
@@ -5859,9 +5859,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1">
         <v>5.2666666666666702</v>
@@ -5954,9 +5954,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1">
         <v>5.2866666666666697</v>
@@ -6052,9 +6052,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
         <v>5.5133333333333301</v>
@@ -6150,9 +6150,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1">
         <v>5.2266666666666701</v>
@@ -6248,9 +6248,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1">
         <v>5.38</v>
@@ -6346,9 +6346,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1">
         <v>5.34</v>
@@ -6444,9 +6444,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1">
         <v>5.3466666666666702</v>
@@ -6542,9 +6542,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B62" s="1">
         <v>5.3333333333333304</v>
@@ -6640,9 +6640,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1">
         <v>5.28</v>
@@ -6738,9 +6738,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
         <v>5.49</v>
@@ -6836,9 +6836,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1">
         <v>5.24</v>
@@ -6934,9 +6934,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1">
         <v>5.3066666666666702</v>
@@ -7032,9 +7032,9 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1">
         <v>5.3266666666666698</v>
@@ -7130,9 +7130,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B68" s="1">
         <v>5.3</v>
@@ -7228,9 +7228,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1">
         <v>5.3266666666666698</v>
@@ -7326,9 +7326,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1">
         <v>5.2933333333333303</v>
@@ -7424,9 +7424,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B71" s="1">
         <v>5.16</v>
@@ -7522,9 +7522,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1">
         <v>5.26</v>
@@ -7620,9 +7620,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B73" s="1">
         <v>5.2133333333333303</v>
@@ -7718,9 +7718,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1">
         <v>5.4133333333333304</v>
@@ -7816,9 +7816,9 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <v>5.5</v>
@@ -7914,9 +7914,9 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
         <v>5.4133333333333304</v>
@@ -8012,9 +8012,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
         <v>5.34</v>
@@ -8110,9 +8110,9 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1">
         <v>5.5333333333333297</v>
@@ -8205,9 +8205,9 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
         <v>5.26</v>
@@ -8303,9 +8303,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1">
         <v>5.4666666666666703</v>
@@ -8401,9 +8401,9 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B81" s="1">
         <v>5.4866666666666699</v>
@@ -8499,9 +8499,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B82" s="1">
         <v>5.24</v>
@@ -8597,9 +8597,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B83" s="1">
         <v>5.26</v>
@@ -8695,9 +8695,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1">
         <v>5.2133333333333303</v>
@@ -8793,9 +8793,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
         <v>5.2</v>
@@ -8891,9 +8891,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B86" s="1">
         <v>5.2266666666666701</v>
@@ -8977,9 +8977,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1">
         <v>5.2733333333333299</v>
@@ -9072,9 +9072,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1">
         <v>5.5066666666666704</v>
@@ -9170,9 +9170,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1">
         <v>5.2666666666666702</v>
@@ -9268,9 +9268,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>5.3266666666666698</v>
@@ -9366,9 +9366,9 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B91" s="1">
         <v>5.2533333333333303</v>
@@ -9464,9 +9464,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1">
         <v>5.34</v>
@@ -9559,9 +9559,9 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1">
         <v>5.66</v>
@@ -9615,9 +9615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1">
         <v>5.3666666666666698</v>
@@ -9713,9 +9713,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <v>5.46</v>
@@ -9808,9 +9808,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <v>5.54</v>
@@ -9903,9 +9903,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1">
         <v>5.3466666666666702</v>
@@ -10001,9 +10001,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1">
         <v>5.4866666666666699</v>
@@ -10093,9 +10093,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1">
         <v>5.2866666666666697</v>
@@ -10191,9 +10191,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B100" s="1">
         <v>5.4266666666666703</v>
@@ -10286,9 +10286,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B101" s="1">
         <v>5.4066666666666698</v>
@@ -10384,9 +10384,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B102" s="1">
         <v>5.4266666666666703</v>
@@ -10479,9 +10479,9 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B103" s="1">
         <v>5.4466666666666699</v>
@@ -10577,9 +10577,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B104" s="1">
         <v>5.2933333333333303</v>
@@ -10675,9 +10675,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B105" s="1">
         <v>5.3666666666666698</v>
@@ -10773,9 +10773,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B106" s="1">
         <v>5.36</v>
@@ -10871,9 +10871,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B107" s="1">
         <v>5.34</v>
@@ -10969,9 +10969,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1">
         <v>5.22</v>
@@ -11067,9 +11067,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1">
         <v>5.1866666666666701</v>
@@ -11165,9 +11165,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B110" s="1">
         <v>5.2866666666666697</v>
@@ -11263,9 +11263,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
         <v>5.2133333333333303</v>
@@ -11358,9 +11358,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B112" s="1">
         <v>5.2866666666666697</v>
@@ -11456,9 +11456,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B113" s="1">
         <v>5.28</v>
@@ -11554,9 +11554,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B114" s="1">
         <v>5.5133333333333301</v>
@@ -11652,9 +11652,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B115" s="1">
         <v>5.4933333333333296</v>
@@ -11750,9 +11750,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1">
         <v>5.26</v>
@@ -11842,9 +11842,9 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B117" s="1">
         <v>5.2666666666666702</v>
@@ -11940,9 +11940,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B118" s="1">
         <v>5.28</v>
@@ -12038,9 +12038,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B119" s="1">
         <v>5.4866666666666699</v>
@@ -12133,9 +12133,9 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B120" s="1">
         <v>5.34</v>
@@ -12231,9 +12231,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1">
         <v>5.2933333333333303</v>
@@ -12329,9 +12329,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
         <v>5.26</v>
@@ -12424,9 +12424,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1">
         <v>5.2533333333333303</v>
@@ -12522,9 +12522,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1">
         <v>5.2733333333333299</v>
@@ -12620,9 +12620,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B125" s="1">
         <v>5.24</v>
@@ -12718,9 +12718,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B126" s="1">
         <v>5.38</v>
@@ -12816,9 +12816,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B127" s="1">
         <v>5.4533333333333296</v>
@@ -12914,7 +12914,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>5.1533333333333298</v>
       </c>
@@ -13009,9 +13009,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1">
         <v>5.3133333333333299</v>
@@ -13104,9 +13104,9 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1">
         <v>5.5466666666666704</v>
@@ -13202,9 +13202,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1">
         <v>5.44</v>
@@ -13300,9 +13300,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B132" s="1">
         <v>5.3333333333333304</v>
@@ -13395,9 +13395,9 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B133" s="1">
         <v>5.3333333333333304</v>
@@ -13490,9 +13490,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B134" s="1">
         <v>5.5333333333333297</v>
@@ -13585,9 +13585,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C135" s="2">
         <v>23.946666666666701</v>
@@ -13677,9 +13677,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1">
         <v>5.4666666666666703</v>
@@ -13775,9 +13775,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B137" s="1">
         <v>5.4533333333333296</v>
@@ -13873,9 +13873,9 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B138" s="1">
         <v>5.4733333333333301</v>
@@ -13965,9 +13965,9 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B139" s="1">
         <v>5.4933333333333296</v>
@@ -14060,9 +14060,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B140" s="1">
         <v>5.44</v>
@@ -14155,9 +14155,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B141" s="1">
         <v>5.4666666666666703</v>
@@ -14250,9 +14250,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B142" s="1">
         <v>5.28</v>
@@ -14348,9 +14348,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B143" s="1">
         <v>5.3133333333333299</v>
@@ -14446,9 +14446,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B144" s="1">
         <v>5.3266666666666698</v>
@@ -14544,9 +14544,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B145" s="1">
         <v>5.2866666666666697</v>
@@ -14639,9 +14639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B146" s="1">
         <v>5.4266666666666703</v>
@@ -14737,9 +14737,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B147" s="1">
         <v>5.4</v>
@@ -14835,9 +14835,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B148" s="1">
         <v>5.4133333333333304</v>
@@ -14933,9 +14933,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B149" s="1">
         <v>5.3066666666666702</v>
@@ -15031,9 +15031,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B150" s="1">
         <v>5.3333333333333304</v>
@@ -15126,9 +15126,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B151" s="1">
         <v>5.3133333333333299</v>
@@ -15224,9 +15224,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B152" s="1">
         <v>5.3133333333333299</v>
@@ -15322,9 +15322,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B153" s="1">
         <v>5.2866666666666697</v>
@@ -15420,9 +15420,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B154" s="1">
         <v>5.3466666666666702</v>
@@ -15518,9 +15518,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B155" s="1">
         <v>5.2333333333333298</v>
@@ -15616,9 +15616,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B156" s="1">
         <v>5.1733333333333302</v>
@@ -15714,9 +15714,9 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B157" s="1">
         <v>5.3066666666666702</v>
@@ -15812,9 +15812,9 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B158" s="1">
         <v>5.2933333333333303</v>
@@ -15910,9 +15910,9 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B159" s="1">
         <v>5.3466666666666702</v>
@@ -16008,9 +16008,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B160" s="1">
         <v>5.3333333333333304</v>
@@ -16106,9 +16106,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B161" s="1">
         <v>5.3066666666666702</v>
@@ -16204,9 +16204,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B162" s="1">
         <v>5.2666666666666702</v>
@@ -16299,9 +16299,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B163" s="1">
         <v>5.5466666666666704</v>
@@ -16394,9 +16394,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B164" s="1">
         <v>5.3</v>
@@ -16492,9 +16492,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B165" s="1">
         <v>5.3333333333333304</v>
@@ -16590,9 +16590,9 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B166" s="1">
         <v>5.32</v>
@@ -16688,9 +16688,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B167" s="1">
         <v>5.3066666666666702</v>
@@ -16783,7 +16783,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>5.2866666666666697</v>
       </c>
@@ -16878,9 +16878,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1">
         <v>5.5733333333333297</v>
@@ -16976,9 +16976,9 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B170" s="1">
         <v>5.5266666666666699</v>
@@ -17074,9 +17074,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1">
         <v>5.4666666666666703</v>
@@ -17172,9 +17172,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B172" s="1">
         <v>5.3533333333333299</v>
@@ -17267,9 +17267,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B173" s="1">
         <v>5.3</v>
@@ -17362,9 +17362,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B174" s="1">
         <v>5.36</v>
@@ -17460,9 +17460,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B175" s="1">
         <v>5.28</v>
@@ -17558,9 +17558,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B176" s="1">
         <v>5.3533333333333299</v>
@@ -17656,9 +17656,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B177" s="1">
         <v>5.3266666666666698</v>
@@ -17754,9 +17754,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B178" s="1">
         <v>5.3</v>
@@ -17852,9 +17852,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B179" s="1">
         <v>5.2933333333333303</v>
@@ -17950,9 +17950,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B180" s="1">
         <v>5.4733333333333301</v>
@@ -18045,9 +18045,9 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B181" s="1">
         <v>5.2933333333333303</v>
@@ -18143,9 +18143,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B182" s="1">
         <v>5.32</v>
@@ -18241,9 +18241,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B183" s="1">
         <v>5.48</v>
@@ -18339,9 +18339,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B184" s="1">
         <v>5.3133333333333299</v>
@@ -18437,9 +18437,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B185" s="1">
         <v>5.24</v>
@@ -18535,9 +18535,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B186" s="1">
         <v>5.26</v>
@@ -18630,9 +18630,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B187" s="1">
         <v>5.32</v>
@@ -18728,9 +18728,9 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B188" s="1">
         <v>5.2866666666666697</v>
@@ -18826,9 +18826,9 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B189" s="1">
         <v>5.5266666666666699</v>
@@ -18924,9 +18924,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B190" s="1">
         <v>5.2666666666666702</v>
@@ -19022,9 +19022,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B191" s="1">
         <v>5.43333333333333</v>
@@ -19120,9 +19120,9 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B192" s="1">
         <v>5.44</v>
@@ -19218,9 +19218,9 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B193" s="1">
         <v>5.39333333333333</v>
@@ -19316,9 +19316,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B194" s="1">
         <v>5.39333333333333</v>
@@ -19414,9 +19414,9 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B195" s="1">
         <v>5.5</v>
@@ -19509,9 +19509,9 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B196" s="1">
         <v>5.54</v>
@@ -19607,9 +19607,9 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B197" s="1">
         <v>5.46</v>
@@ -19705,9 +19705,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B198" s="1">
         <v>5.4666666666666703</v>
@@ -19803,9 +19803,9 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B199" s="1">
         <v>5.4533333333333296</v>
@@ -19901,9 +19901,9 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B200" s="1">
         <v>5.1466666666666701</v>
@@ -19999,9 +19999,9 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B201" s="1">
         <v>5.34</v>
@@ -20097,9 +20097,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B202" s="1">
         <v>5.4733333333333301</v>
@@ -20195,9 +20195,9 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B203" s="1">
         <v>5.5533333333333301</v>
@@ -20293,9 +20293,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B204" s="1">
         <v>5.2866666666666697</v>
@@ -20388,9 +20388,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B205" s="1">
         <v>5.3466666666666702</v>
@@ -20486,9 +20486,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B206" s="1">
         <v>5.3666666666666698</v>
@@ -20584,9 +20584,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B207" s="1">
         <v>5.5533333333333301</v>
@@ -20682,9 +20682,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B208" s="1">
         <v>5.56666666666667</v>
@@ -20780,9 +20780,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B209" s="1">
         <v>5.2133333333333303</v>
@@ -20875,7 +20875,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>5.46</v>
       </c>
@@ -20970,7 +20970,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>5.34</v>
       </c>
@@ -21065,9 +21065,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B212" s="1">
         <v>5.4066666666666698</v>
@@ -21163,9 +21163,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B213" s="1">
         <v>5.43333333333333</v>
@@ -21261,9 +21261,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B214" s="1">
         <v>5.36</v>
@@ -21359,9 +21359,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B215" s="1">
         <v>5.2866666666666697</v>
@@ -21457,9 +21457,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B216" s="1">
         <v>5.5466666666666704</v>
@@ -21555,9 +21555,9 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B217" s="1">
         <v>5.36</v>
@@ -21653,9 +21653,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B218" s="1">
         <v>5.1933333333333298</v>
@@ -21751,9 +21751,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B219" s="1">
         <v>5.24</v>
@@ -21849,9 +21849,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B220" s="1">
         <v>5.52</v>
@@ -21947,9 +21947,9 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B221" s="1">
         <v>5.5533333333333301</v>
@@ -22045,9 +22045,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B222" s="1">
         <v>5.2533333333333303</v>
@@ -22143,9 +22143,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B223" s="1">
         <v>5.3066666666666702</v>
@@ -22241,9 +22241,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B224" s="1">
         <v>5.32</v>
@@ -22339,9 +22339,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B225" s="1">
         <v>5.47</v>
@@ -22437,9 +22437,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B226" s="1">
         <v>5.5</v>
@@ -22535,9 +22535,9 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B227" s="1">
         <v>5.43333333333333</v>
@@ -22633,9 +22633,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B228" s="1">
         <v>5.3333333333333304</v>
@@ -22725,9 +22725,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B229" s="1">
         <v>5.36</v>
@@ -22823,9 +22823,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B230" s="1">
         <v>5.28</v>
@@ -22921,9 +22921,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B231" s="1">
         <v>5.3133333333333299</v>
@@ -23019,9 +23019,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B232" s="1">
         <v>5.24</v>
@@ -23117,9 +23117,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B233" s="1">
         <v>5.2</v>
@@ -23212,9 +23212,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B234" s="1">
         <v>5.2733333333333299</v>
@@ -23310,9 +23310,9 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B235" s="1">
         <v>5.6333333333333302</v>
@@ -23408,9 +23408,9 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B236" s="1">
         <v>5.5933333333333302</v>
@@ -23506,7 +23506,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>5.26</v>
       </c>
@@ -23601,9 +23601,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B238" s="1">
         <v>5.3466666666666702</v>
@@ -23699,9 +23699,9 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B239" s="1">
         <v>5.2466666666666697</v>
@@ -23797,9 +23797,9 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B240" s="1">
         <v>5.42</v>
@@ -23895,9 +23895,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B241" s="1">
         <v>5.36</v>
@@ -23993,9 +23993,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B242" s="1">
         <v>5.39333333333333</v>
@@ -24091,9 +24091,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B243" s="1">
         <v>5.5866666666666696</v>
@@ -24189,9 +24189,9 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B244" s="1">
         <v>5.58</v>
@@ -24284,9 +24284,9 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B245" s="1">
         <v>5.48</v>
@@ -24382,9 +24382,9 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B246" s="1">
         <v>5.24</v>
@@ -24480,9 +24480,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B247" s="1">
         <v>5.34</v>
@@ -24578,9 +24578,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B248" s="1">
         <v>5.3733333333333304</v>
@@ -24676,9 +24676,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B249" s="1">
         <v>5.6</v>
@@ -24774,9 +24774,9 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B250" s="1">
         <v>5.6666666666666696</v>
@@ -24866,9 +24866,9 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B251" s="1">
         <v>5.2466666666666697</v>
@@ -24964,9 +24964,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B252" s="1">
         <v>5.39333333333333</v>
@@ -25059,9 +25059,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B253" s="1">
         <v>5.2133333333333303</v>
@@ -25157,9 +25157,9 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B254" s="1">
         <v>5.26</v>
@@ -25249,9 +25249,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B255" s="1">
         <v>5.5266666666666699</v>
@@ -25347,9 +25347,9 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B256" s="1">
         <v>5.58</v>
@@ -25445,7 +25445,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>5.2</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>5.2733333333333299</v>
       </c>
@@ -25614,9 +25614,9 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B259" s="1">
         <v>5.5</v>
@@ -25712,9 +25712,9 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B260" s="1">
         <v>5.16</v>
@@ -25810,9 +25810,9 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B261" s="1">
         <v>5.2866666666666697</v>
@@ -25908,9 +25908,9 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B262" s="1">
         <v>5.58</v>
@@ -26006,9 +26006,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B263" s="1">
         <v>5.5066666666666704</v>
@@ -26104,9 +26104,9 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B264" s="1">
         <v>5.3866666666666703</v>
@@ -26202,9 +26202,9 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B265" s="1">
         <v>5.5733333333333297</v>
@@ -26300,9 +26300,9 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B266" s="1">
         <v>5.42</v>
@@ -26398,9 +26398,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B267" s="1">
         <v>5.2533333333333303</v>
@@ -26496,9 +26496,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B268" s="1">
         <v>5.22</v>
